--- a/Coding.xlsx
+++ b/Coding.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fushanshan/Downloads/Shanshan-Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fushanshan/Documents/Shanshan-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="-260" yWindow="1180" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,10 +451,10 @@
       <c r="C3" s="2">
         <v>23</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>24</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>25</v>
       </c>
       <c r="F3" s="2">
@@ -594,10 +594,10 @@
       <c r="H7" s="1">
         <v>68</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>69</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>70</v>
       </c>
     </row>
@@ -608,10 +608,10 @@
       <c r="B8" s="1">
         <v>72</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>73</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>74</v>
       </c>
       <c r="E8" s="1">
@@ -655,7 +655,7 @@
       <c r="G9" s="1">
         <v>87</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>88</v>
       </c>
       <c r="I9" s="1">
@@ -681,7 +681,7 @@
       <c r="E10" s="1">
         <v>95</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>96</v>
       </c>
       <c r="G10" s="1">
@@ -733,10 +733,10 @@
       <c r="A12" s="2">
         <v>111</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>112</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>113</v>
       </c>
       <c r="D12" s="2">
@@ -1737,11 +1737,85 @@
       <c r="E43" s="1">
         <v>425</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="F43" s="1">
+        <v>426</v>
+      </c>
+      <c r="G43" s="1">
+        <v>427</v>
+      </c>
+      <c r="H43" s="1">
+        <v>428</v>
+      </c>
+      <c r="I43" s="1">
+        <v>429</v>
+      </c>
+      <c r="J43" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>431</v>
+      </c>
+      <c r="B44" s="1">
+        <v>432</v>
+      </c>
+      <c r="C44" s="1">
+        <v>433</v>
+      </c>
+      <c r="D44" s="1">
+        <v>434</v>
+      </c>
+      <c r="E44" s="1">
+        <v>435</v>
+      </c>
+      <c r="F44" s="1">
+        <v>436</v>
+      </c>
+      <c r="G44" s="1">
+        <v>437</v>
+      </c>
+      <c r="H44" s="1">
+        <v>438</v>
+      </c>
+      <c r="I44" s="1">
+        <v>439</v>
+      </c>
+      <c r="J44" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>441</v>
+      </c>
+      <c r="B45" s="1">
+        <v>442</v>
+      </c>
+      <c r="C45" s="1">
+        <v>443</v>
+      </c>
+      <c r="D45" s="1">
+        <v>444</v>
+      </c>
+      <c r="E45" s="1">
+        <v>445</v>
+      </c>
+      <c r="F45" s="1">
+        <v>446</v>
+      </c>
+      <c r="G45" s="1">
+        <v>447</v>
+      </c>
+      <c r="H45" s="1">
+        <v>448</v>
+      </c>
+      <c r="I45" s="1">
+        <v>449</v>
+      </c>
+      <c r="J45" s="1">
+        <v>450</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Coding.xlsx
+++ b/Coding.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="D3:E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +483,7 @@
       <c r="C4" s="2">
         <v>33</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>34</v>
       </c>
       <c r="E4" s="2">

--- a/Coding.xlsx
+++ b/Coding.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fushanshan/Documents/Shanshan-Code/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="1180" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="-255" yWindow="1185" windowWidth="28800" windowHeight="16335" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode" sheetId="1" r:id="rId1"/>
@@ -28,8 +23,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -184,7 +179,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -361,23 +356,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.25">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -409,7 +404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="2">
         <v>11</v>
       </c>
@@ -441,7 +436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="2">
         <v>21</v>
       </c>
@@ -473,7 +468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="2">
         <v>31</v>
       </c>
@@ -505,7 +500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="20.25">
       <c r="A5" s="2">
         <v>41</v>
       </c>
@@ -537,14 +532,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="20.25">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="1">
         <v>52</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>53</v>
       </c>
       <c r="D6" s="1">
@@ -569,7 +564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="20.25">
       <c r="A7" s="2">
         <v>61</v>
       </c>
@@ -601,11 +596,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="20.25">
       <c r="A8" s="1">
         <v>71</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>72</v>
       </c>
       <c r="C8" s="2">
@@ -633,7 +628,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="20.25">
       <c r="A9" s="2">
         <v>81</v>
       </c>
@@ -665,8 +660,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:10" ht="20.25">
+      <c r="A10" s="2">
         <v>91</v>
       </c>
       <c r="B10" s="2">
@@ -678,13 +673,13 @@
       <c r="D10" s="2">
         <v>94</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>95</v>
       </c>
       <c r="F10" s="2">
         <v>96</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>97</v>
       </c>
       <c r="H10" s="1">
@@ -697,7 +692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="20.25">
       <c r="A11" s="2">
         <v>101</v>
       </c>
@@ -729,7 +724,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="20.25">
       <c r="A12" s="2">
         <v>111</v>
       </c>
@@ -761,7 +756,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="20.25">
       <c r="A13" s="2">
         <v>121</v>
       </c>
@@ -793,11 +788,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="20.25">
       <c r="A14" s="2">
         <v>131</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>132</v>
       </c>
       <c r="C14" s="1">
@@ -825,7 +820,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="20.25">
       <c r="A15" s="2">
         <v>141</v>
       </c>
@@ -835,7 +830,7 @@
       <c r="C15" s="1">
         <v>143</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>144</v>
       </c>
       <c r="E15" s="2">
@@ -857,11 +852,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:10" ht="20.25">
+      <c r="A16" s="2">
         <v>151</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>152</v>
       </c>
       <c r="C16" s="2">
@@ -889,11 +884,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="20.25">
       <c r="A17" s="1">
         <v>161</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>162</v>
       </c>
       <c r="C17" s="1">
@@ -908,20 +903,20 @@
       <c r="F17" s="1">
         <v>166</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>167</v>
       </c>
       <c r="H17" s="1">
         <v>168</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>169</v>
       </c>
       <c r="J17" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="20.25">
       <c r="A18" s="1">
         <v>171</v>
       </c>
@@ -946,14 +941,14 @@
       <c r="H18" s="1">
         <v>178</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <v>179</v>
       </c>
       <c r="J18" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="20.25">
       <c r="A19" s="1">
         <v>181</v>
       </c>
@@ -985,8 +980,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:10" ht="20.25">
+      <c r="A20" s="2">
         <v>191</v>
       </c>
       <c r="B20" s="1">
@@ -1017,7 +1012,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="20.25">
       <c r="A21" s="1">
         <v>201</v>
       </c>
@@ -1049,7 +1044,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="20.25">
       <c r="A22" s="1">
         <v>211</v>
       </c>
@@ -1081,7 +1076,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="20.25">
       <c r="A23" s="1">
         <v>221</v>
       </c>
@@ -1113,7 +1108,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="20.25">
       <c r="A24" s="2">
         <v>231</v>
       </c>
@@ -1145,7 +1140,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="20.25">
       <c r="A25" s="1">
         <v>241</v>
       </c>
@@ -1177,7 +1172,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="20.25">
       <c r="A26" s="1">
         <v>251</v>
       </c>
@@ -1209,7 +1204,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="20.25">
       <c r="A27" s="1">
         <v>261</v>
       </c>
@@ -1241,7 +1236,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="20.25">
       <c r="A28" s="1">
         <v>271</v>
       </c>
@@ -1273,7 +1268,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="20.25">
       <c r="A29" s="1">
         <v>281</v>
       </c>
@@ -1305,7 +1300,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="20.25">
       <c r="A30" s="1">
         <v>291</v>
       </c>
@@ -1337,7 +1332,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="20.25">
       <c r="A31" s="1">
         <v>301</v>
       </c>
@@ -1369,7 +1364,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="20.25">
       <c r="A32" s="1">
         <v>311</v>
       </c>
@@ -1401,7 +1396,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="20.25">
       <c r="A33" s="1">
         <v>321</v>
       </c>
@@ -1433,7 +1428,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="20.25">
       <c r="A34" s="1">
         <v>331</v>
       </c>
@@ -1465,7 +1460,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="20.25">
       <c r="A35" s="1">
         <v>341</v>
       </c>
@@ -1497,7 +1492,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="20.25">
       <c r="A36" s="1">
         <v>351</v>
       </c>
@@ -1529,7 +1524,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="20.25">
       <c r="A37" s="1">
         <v>361</v>
       </c>
@@ -1561,7 +1556,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="20.25">
       <c r="A38" s="1">
         <v>371</v>
       </c>
@@ -1593,7 +1588,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="20.25">
       <c r="A39" s="1">
         <v>381</v>
       </c>
@@ -1625,7 +1620,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="20.25">
       <c r="A40" s="1">
         <v>391</v>
       </c>
@@ -1657,7 +1652,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="20.25">
       <c r="A41" s="1">
         <v>401</v>
       </c>
@@ -1689,7 +1684,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="20.25">
       <c r="A42" s="1">
         <v>411</v>
       </c>
@@ -1721,7 +1716,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="20.25">
       <c r="A43" s="1">
         <v>421</v>
       </c>
@@ -1753,7 +1748,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="20.25">
       <c r="A44" s="1">
         <v>431</v>
       </c>
@@ -1785,7 +1780,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="20.25">
       <c r="A45" s="1">
         <v>441</v>
       </c>
@@ -1825,16 +1820,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J413"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J413"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.25">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -1866,7 +1861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="3">
         <v>11</v>
       </c>
@@ -1898,7 +1893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="3">
         <v>21</v>
       </c>
@@ -1930,7 +1925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="3">
         <v>31</v>
       </c>
@@ -1962,7 +1957,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="20.25">
       <c r="A5" s="3">
         <v>41</v>
       </c>
@@ -1994,7 +1989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="20.25">
       <c r="A6" s="3">
         <v>51</v>
       </c>
@@ -2026,7 +2021,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="20.25">
       <c r="A7" s="3">
         <v>61</v>
       </c>
@@ -2058,7 +2053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="20.25">
       <c r="A8" s="3">
         <v>71</v>
       </c>
@@ -2090,7 +2085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="20.25">
       <c r="A9" s="3">
         <v>81</v>
       </c>
@@ -2122,7 +2117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="20.25">
       <c r="A10" s="3">
         <v>91</v>
       </c>
@@ -2154,7 +2149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="20.25">
       <c r="A11" s="3">
         <v>101</v>
       </c>
@@ -2186,7 +2181,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="20.25">
       <c r="A12" s="3">
         <v>111</v>
       </c>
@@ -2218,7 +2213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="20.25">
       <c r="A13" s="3">
         <v>121</v>
       </c>
@@ -2250,7 +2245,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="20.25">
       <c r="A14" s="3">
         <v>131</v>
       </c>
@@ -2282,7 +2277,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="20.25">
       <c r="A15" s="3">
         <v>141</v>
       </c>
@@ -2314,7 +2309,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="20.25">
       <c r="A16" s="3">
         <v>151</v>
       </c>
@@ -2346,7 +2341,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="20.25">
       <c r="A17" s="3">
         <v>161</v>
       </c>
@@ -2378,7 +2373,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="20.25">
       <c r="A18" s="3">
         <v>171</v>
       </c>
@@ -2410,7 +2405,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="20.25">
       <c r="A19" s="3">
         <v>181</v>
       </c>
@@ -2442,7 +2437,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="20.25">
       <c r="A20" s="3">
         <v>191</v>
       </c>
@@ -2474,7 +2469,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="20.25">
       <c r="A21" s="3">
         <v>201</v>
       </c>
@@ -2506,7 +2501,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="20.25">
       <c r="A22" s="3">
         <v>211</v>
       </c>
@@ -2538,7 +2533,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="20.25">
       <c r="A23" s="3">
         <v>221</v>
       </c>
@@ -2570,7 +2565,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="20.25">
       <c r="A24" s="3">
         <v>231</v>
       </c>
@@ -2602,7 +2597,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="20.25">
       <c r="A25" s="3">
         <v>241</v>
       </c>
@@ -2634,7 +2629,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="20.25">
       <c r="A26" s="3">
         <v>251</v>
       </c>
@@ -2666,7 +2661,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="20.25">
       <c r="A27" s="3">
         <v>261</v>
       </c>
@@ -2698,7 +2693,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="20.25">
       <c r="A28" s="3">
         <v>271</v>
       </c>
@@ -2730,7 +2725,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="20.25">
       <c r="A29" s="3">
         <v>281</v>
       </c>
@@ -2762,7 +2757,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="20.25">
       <c r="A30" s="3">
         <v>291</v>
       </c>
@@ -2794,7 +2789,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="20.25">
       <c r="A31" s="3">
         <v>301</v>
       </c>
@@ -2826,7 +2821,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="20.25">
       <c r="A32" s="3">
         <v>311</v>
       </c>
@@ -2858,7 +2853,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="20.25">
       <c r="A33" s="3">
         <v>321</v>
       </c>
@@ -2890,7 +2885,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="20.25">
       <c r="A34" s="3">
         <v>331</v>
       </c>
@@ -2922,7 +2917,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="20.25">
       <c r="A35" s="3">
         <v>341</v>
       </c>
@@ -2954,7 +2949,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="20.25">
       <c r="A36" s="3">
         <v>351</v>
       </c>
@@ -2986,7 +2981,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="20.25">
       <c r="A37" s="3">
         <v>361</v>
       </c>
@@ -3018,7 +3013,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="20.25">
       <c r="A38" s="3">
         <v>371</v>
       </c>
@@ -3050,7 +3045,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="20.25">
       <c r="A39" s="3">
         <v>381</v>
       </c>
@@ -3082,7 +3077,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="20.25">
       <c r="A40" s="3">
         <v>391</v>
       </c>
@@ -3114,7 +3109,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="20.25">
       <c r="A41" s="3">
         <v>401</v>
       </c>
@@ -3146,7 +3141,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="20.25">
       <c r="A42" s="3">
         <v>411</v>
       </c>
@@ -3178,7 +3173,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="20.25">
       <c r="A43" s="3">
         <v>421</v>
       </c>
@@ -3210,7 +3205,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="20.25">
       <c r="A44" s="3">
         <v>431</v>
       </c>
@@ -3242,7 +3237,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="20.25">
       <c r="A45" s="3">
         <v>441</v>
       </c>
@@ -3274,7 +3269,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="20.25">
       <c r="A46" s="3">
         <v>451</v>
       </c>
@@ -3306,7 +3301,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="20.25">
       <c r="A47" s="3">
         <v>461</v>
       </c>
@@ -3338,7 +3333,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="20.25">
       <c r="A48" s="3">
         <v>471</v>
       </c>
@@ -3370,7 +3365,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="20.25">
       <c r="A49" s="3">
         <v>481</v>
       </c>
@@ -3402,7 +3397,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="20.25">
       <c r="A50" s="3">
         <v>491</v>
       </c>
@@ -3434,7 +3429,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="20.25">
       <c r="A51" s="3">
         <v>501</v>
       </c>
@@ -3466,7 +3461,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="20.25">
       <c r="A52" s="3">
         <v>511</v>
       </c>
@@ -3498,7 +3493,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="20.25">
       <c r="A53" s="3">
         <v>521</v>
       </c>
@@ -3530,7 +3525,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="20.25">
       <c r="A54" s="3">
         <v>531</v>
       </c>
@@ -3562,7 +3557,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="20.25">
       <c r="A55" s="3">
         <v>541</v>
       </c>
@@ -3594,7 +3589,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="20.25">
       <c r="A56" s="3">
         <v>551</v>
       </c>
@@ -3626,7 +3621,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="20.25">
       <c r="A57" s="3">
         <v>561</v>
       </c>
@@ -3658,7 +3653,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="20.25">
       <c r="A58" s="3">
         <v>571</v>
       </c>
@@ -3690,7 +3685,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="20.25">
       <c r="A59" s="3">
         <v>581</v>
       </c>
@@ -3722,7 +3717,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="20.25">
       <c r="A60" s="3">
         <v>591</v>
       </c>
@@ -3754,7 +3749,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="20.25">
       <c r="A61" s="3">
         <v>601</v>
       </c>
@@ -3786,7 +3781,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="20.25">
       <c r="A62" s="3">
         <v>611</v>
       </c>
@@ -3818,7 +3813,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="20.25">
       <c r="A63" s="3">
         <v>621</v>
       </c>
@@ -3850,7 +3845,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="20.25">
       <c r="A64" s="3">
         <v>631</v>
       </c>
@@ -3882,7 +3877,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="20.25">
       <c r="A65" s="3">
         <v>641</v>
       </c>
@@ -3914,7 +3909,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="20.25">
       <c r="A66" s="3">
         <v>651</v>
       </c>
@@ -3946,7 +3941,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="20.25">
       <c r="A67" s="3">
         <v>661</v>
       </c>
@@ -3978,7 +3973,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="20.25">
       <c r="A68" s="3">
         <v>671</v>
       </c>
@@ -4010,7 +4005,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="20.25">
       <c r="A69" s="3">
         <v>681</v>
       </c>
@@ -4042,7 +4037,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="20.25">
       <c r="A70" s="3">
         <v>691</v>
       </c>
@@ -4074,7 +4069,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="20.25">
       <c r="A71" s="3">
         <v>701</v>
       </c>
@@ -4106,7 +4101,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="20.25">
       <c r="A72" s="3">
         <v>711</v>
       </c>
@@ -4138,7 +4133,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="20.25">
       <c r="A73" s="3">
         <v>721</v>
       </c>
@@ -4170,7 +4165,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="20.25">
       <c r="A74" s="3">
         <v>731</v>
       </c>
@@ -4202,7 +4197,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="20.25">
       <c r="A75" s="3">
         <v>741</v>
       </c>
@@ -4234,7 +4229,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="20.25">
       <c r="A76" s="3">
         <v>751</v>
       </c>
@@ -4266,7 +4261,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="20.25">
       <c r="A77" s="3">
         <v>761</v>
       </c>
@@ -4298,7 +4293,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="20.25">
       <c r="A78" s="3">
         <v>771</v>
       </c>
@@ -4330,7 +4325,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="20.25">
       <c r="A79" s="3">
         <v>781</v>
       </c>
@@ -4362,7 +4357,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="20.25">
       <c r="A80" s="3">
         <v>791</v>
       </c>
@@ -4394,7 +4389,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="20.25">
       <c r="A81" s="3">
         <v>801</v>
       </c>
@@ -4426,7 +4421,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="20.25">
       <c r="A82" s="3">
         <v>811</v>
       </c>
@@ -4458,7 +4453,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="20.25">
       <c r="A83" s="3">
         <v>821</v>
       </c>
@@ -4490,7 +4485,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="20.25">
       <c r="A84" s="3">
         <v>831</v>
       </c>
@@ -4522,7 +4517,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="20.25">
       <c r="A85" s="3">
         <v>841</v>
       </c>
@@ -4554,7 +4549,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="20.25">
       <c r="A86" s="3">
         <v>851</v>
       </c>
@@ -4586,7 +4581,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="20.25">
       <c r="A87" s="3">
         <v>861</v>
       </c>
@@ -4618,7 +4613,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="20.25">
       <c r="A88" s="3">
         <v>871</v>
       </c>
@@ -4650,7 +4645,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="20.25">
       <c r="A89" s="3">
         <v>881</v>
       </c>
@@ -4682,7 +4677,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="20.25">
       <c r="A90" s="3">
         <v>891</v>
       </c>
@@ -4714,7 +4709,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="20.25">
       <c r="A91" s="3">
         <v>901</v>
       </c>
@@ -4746,7 +4741,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="20.25">
       <c r="A92" s="3">
         <v>911</v>
       </c>
@@ -4778,7 +4773,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="20.25">
       <c r="A93" s="3">
         <v>921</v>
       </c>
@@ -4810,7 +4805,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="20.25">
       <c r="A94" s="3">
         <v>931</v>
       </c>
@@ -4842,7 +4837,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="20.25">
       <c r="A95" s="3">
         <v>941</v>
       </c>
@@ -4874,7 +4869,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="20.25">
       <c r="A96" s="3">
         <v>951</v>
       </c>
@@ -4906,7 +4901,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="20.25">
       <c r="A97" s="3">
         <v>961</v>
       </c>
@@ -4938,7 +4933,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="20.25">
       <c r="A98" s="3">
         <v>971</v>
       </c>
@@ -4970,7 +4965,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="20.25">
       <c r="A99" s="3">
         <v>981</v>
       </c>
@@ -5002,7 +4997,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="20.25">
       <c r="A100" s="3">
         <v>991</v>
       </c>
@@ -5034,7 +5029,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="20.25">
       <c r="A101" s="3">
         <v>1001</v>
       </c>
@@ -5066,7 +5061,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="20.25">
       <c r="A102" s="3">
         <v>1011</v>
       </c>
@@ -5098,7 +5093,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="20.25">
       <c r="A103" s="3">
         <v>1021</v>
       </c>
@@ -5130,7 +5125,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="20.25">
       <c r="A104" s="3">
         <v>1031</v>
       </c>
@@ -5162,7 +5157,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="20.25">
       <c r="A105" s="3">
         <v>1041</v>
       </c>
@@ -5194,7 +5189,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="20.25">
       <c r="A106" s="3">
         <v>1051</v>
       </c>
@@ -5226,7 +5221,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="20.25">
       <c r="A107" s="3">
         <v>1061</v>
       </c>
@@ -5258,7 +5253,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="20.25">
       <c r="A108" s="3">
         <v>1071</v>
       </c>
@@ -5290,7 +5285,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="20.25">
       <c r="A109" s="3">
         <v>1081</v>
       </c>
@@ -5322,7 +5317,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="20.25">
       <c r="A110" s="3">
         <v>1091</v>
       </c>
@@ -5354,7 +5349,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="20.25">
       <c r="A111" s="3">
         <v>1101</v>
       </c>
@@ -5386,7 +5381,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="20.25">
       <c r="A112" s="3">
         <v>1111</v>
       </c>
@@ -5418,7 +5413,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="20.25">
       <c r="A113" s="3">
         <v>1121</v>
       </c>
@@ -5450,7 +5445,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="20.25">
       <c r="A114" s="3">
         <v>1131</v>
       </c>
@@ -5482,7 +5477,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="20.25">
       <c r="A115" s="3">
         <v>1141</v>
       </c>
@@ -5514,7 +5509,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="20.25">
       <c r="A116" s="3">
         <v>1151</v>
       </c>
@@ -5546,7 +5541,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="20.25">
       <c r="A117" s="3">
         <v>1161</v>
       </c>
@@ -5578,7 +5573,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="20.25">
       <c r="A118" s="3">
         <v>1171</v>
       </c>
@@ -5610,7 +5605,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="20.25">
       <c r="A119" s="3">
         <v>1181</v>
       </c>
@@ -5642,7 +5637,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="20.25">
       <c r="A120" s="3">
         <v>1191</v>
       </c>
@@ -5674,7 +5669,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="20.25">
       <c r="A121" s="3">
         <v>1201</v>
       </c>
@@ -5706,7 +5701,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="20.25">
       <c r="A122" s="3">
         <v>1211</v>
       </c>
@@ -5738,7 +5733,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="20.25">
       <c r="A123" s="3">
         <v>1221</v>
       </c>
@@ -5770,7 +5765,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="20.25">
       <c r="A124" s="3">
         <v>1231</v>
       </c>
@@ -5802,7 +5797,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="20.25">
       <c r="A125" s="3">
         <v>1241</v>
       </c>
@@ -5834,7 +5829,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="20.25">
       <c r="A126" s="3">
         <v>1251</v>
       </c>
@@ -5866,7 +5861,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="20.25">
       <c r="A127" s="3">
         <v>1261</v>
       </c>
@@ -5898,7 +5893,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="20.25">
       <c r="A128" s="3">
         <v>1271</v>
       </c>
@@ -5930,7 +5925,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="20.25">
       <c r="A129" s="3">
         <v>1281</v>
       </c>
@@ -5962,7 +5957,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="20.25">
       <c r="A130" s="3">
         <v>1291</v>
       </c>
@@ -5994,7 +5989,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="20.25">
       <c r="A131" s="3">
         <v>1301</v>
       </c>
@@ -6026,7 +6021,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="20.25">
       <c r="A132" s="3">
         <v>1311</v>
       </c>
@@ -6058,7 +6053,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="20.25">
       <c r="A133" s="3">
         <v>1321</v>
       </c>
@@ -6090,7 +6085,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="20.25">
       <c r="A134" s="3">
         <v>1331</v>
       </c>
@@ -6122,7 +6117,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="20.25">
       <c r="A135" s="3">
         <v>1341</v>
       </c>
@@ -6154,7 +6149,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="20.25">
       <c r="A136" s="3">
         <v>1351</v>
       </c>
@@ -6186,7 +6181,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="20.25">
       <c r="A137" s="3">
         <v>1361</v>
       </c>
@@ -6218,7 +6213,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="20.25">
       <c r="A138" s="3">
         <v>1371</v>
       </c>
@@ -6250,7 +6245,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="20.25">
       <c r="A139" s="3">
         <v>1381</v>
       </c>
@@ -6282,7 +6277,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="20.25">
       <c r="A140" s="3">
         <v>1391</v>
       </c>
@@ -6314,7 +6309,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="20.25">
       <c r="A141" s="3">
         <v>1401</v>
       </c>
@@ -6346,7 +6341,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="20.25">
       <c r="A142" s="3">
         <v>1411</v>
       </c>
@@ -6378,7 +6373,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="20.25">
       <c r="A143" s="3">
         <v>1421</v>
       </c>
@@ -6410,7 +6405,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="20.25">
       <c r="A144" s="3">
         <v>1431</v>
       </c>
@@ -6442,7 +6437,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="20.25">
       <c r="A145" s="3">
         <v>1441</v>
       </c>
@@ -6474,7 +6469,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="20.25">
       <c r="A146" s="3">
         <v>1451</v>
       </c>
@@ -6506,7 +6501,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="20.25">
       <c r="A147" s="3">
         <v>1461</v>
       </c>
@@ -6538,7 +6533,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="20.25">
       <c r="A148" s="3">
         <v>1471</v>
       </c>
@@ -6570,7 +6565,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="20.25">
       <c r="A149" s="3">
         <v>1481</v>
       </c>
@@ -6602,7 +6597,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="20.25">
       <c r="A150" s="3">
         <v>1491</v>
       </c>
@@ -6634,7 +6629,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="20.25">
       <c r="A151" s="3">
         <v>1501</v>
       </c>
@@ -6666,7 +6661,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="20.25">
       <c r="A152" s="3">
         <v>1511</v>
       </c>
@@ -6698,7 +6693,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="20.25">
       <c r="A153" s="3">
         <v>1521</v>
       </c>
@@ -6730,7 +6725,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="20.25">
       <c r="A154" s="3">
         <v>1531</v>
       </c>
@@ -6762,7 +6757,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="20.25">
       <c r="A155" s="3">
         <v>1541</v>
       </c>
@@ -6794,7 +6789,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="20.25">
       <c r="A156" s="3">
         <v>1551</v>
       </c>
@@ -6826,7 +6821,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="20.25">
       <c r="A157" s="3">
         <v>1561</v>
       </c>
@@ -6858,7 +6853,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="20.25">
       <c r="A158" s="3">
         <v>1571</v>
       </c>
@@ -6890,7 +6885,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="20.25">
       <c r="A159" s="3">
         <v>1581</v>
       </c>
@@ -6922,7 +6917,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="20.25">
       <c r="A160" s="3">
         <v>1591</v>
       </c>
@@ -6954,7 +6949,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="20.25">
       <c r="A161" s="3">
         <v>1601</v>
       </c>
@@ -6986,7 +6981,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="20.25">
       <c r="A162" s="3">
         <v>1611</v>
       </c>
@@ -7018,7 +7013,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="20.25">
       <c r="A163" s="3">
         <v>1621</v>
       </c>
@@ -7050,7 +7045,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="20.25">
       <c r="A164" s="3">
         <v>1631</v>
       </c>
@@ -7082,7 +7077,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="20.25">
       <c r="A165" s="3">
         <v>1641</v>
       </c>
@@ -7114,7 +7109,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="20.25">
       <c r="A166" s="3">
         <v>1651</v>
       </c>
@@ -7146,7 +7141,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="20.25">
       <c r="A167" s="3">
         <v>1661</v>
       </c>
@@ -7178,7 +7173,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="20.25">
       <c r="A168" s="3">
         <v>1671</v>
       </c>
@@ -7210,7 +7205,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="20.25">
       <c r="A169" s="3">
         <v>1681</v>
       </c>
@@ -7242,7 +7237,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="20.25">
       <c r="A170" s="3">
         <v>1691</v>
       </c>
@@ -7274,7 +7269,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="20.25">
       <c r="A171" s="3">
         <v>1701</v>
       </c>
@@ -7306,7 +7301,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="20.25">
       <c r="A172" s="3">
         <v>1711</v>
       </c>
@@ -7338,7 +7333,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="20.25">
       <c r="A173" s="3">
         <v>1721</v>
       </c>
@@ -7370,7 +7365,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="20.25">
       <c r="A174" s="3">
         <v>1731</v>
       </c>
@@ -7402,7 +7397,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="20.25">
       <c r="A175" s="3">
         <v>1741</v>
       </c>
@@ -7434,7 +7429,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="20.25">
       <c r="A176" s="3">
         <v>1751</v>
       </c>
@@ -7466,7 +7461,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="20.25">
       <c r="A177" s="3">
         <v>1761</v>
       </c>
@@ -7498,7 +7493,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="20.25">
       <c r="A178" s="3">
         <v>1771</v>
       </c>
@@ -7530,7 +7525,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="20.25">
       <c r="A179" s="3">
         <v>1781</v>
       </c>
@@ -7562,7 +7557,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="20.25">
       <c r="A180" s="3">
         <v>1791</v>
       </c>
@@ -7594,7 +7589,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="20.25">
       <c r="A181" s="3">
         <v>1801</v>
       </c>
@@ -7626,7 +7621,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="20.25">
       <c r="A182" s="3">
         <v>1811</v>
       </c>
@@ -7658,7 +7653,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="20.25">
       <c r="A183" s="3">
         <v>1821</v>
       </c>
@@ -7690,7 +7685,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="20.25">
       <c r="A184" s="3">
         <v>1831</v>
       </c>
@@ -7722,7 +7717,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="20.25">
       <c r="A185" s="3">
         <v>1841</v>
       </c>
@@ -7754,7 +7749,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="20.25">
       <c r="A186" s="3">
         <v>1851</v>
       </c>
@@ -7786,7 +7781,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="20.25">
       <c r="A187" s="3">
         <v>1861</v>
       </c>
@@ -7818,7 +7813,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="20.25">
       <c r="A188" s="3">
         <v>1871</v>
       </c>
@@ -7850,7 +7845,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="20.25">
       <c r="A189" s="3">
         <v>1881</v>
       </c>
@@ -7882,7 +7877,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="20.25">
       <c r="A190" s="3">
         <v>1891</v>
       </c>
@@ -7914,7 +7909,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="20.25">
       <c r="A191" s="3">
         <v>1901</v>
       </c>
@@ -7946,7 +7941,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="20.25">
       <c r="A192" s="3">
         <v>1911</v>
       </c>
@@ -7978,7 +7973,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="20.25">
       <c r="A193" s="3">
         <v>1921</v>
       </c>
@@ -8010,7 +8005,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="20.25">
       <c r="A194" s="3">
         <v>1931</v>
       </c>
@@ -8042,7 +8037,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="20.25">
       <c r="A195" s="3">
         <v>1941</v>
       </c>
@@ -8074,7 +8069,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="20.25">
       <c r="A196" s="3">
         <v>1951</v>
       </c>
@@ -8106,7 +8101,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="20.25">
       <c r="A197" s="3">
         <v>1961</v>
       </c>
@@ -8138,7 +8133,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="20.25">
       <c r="A198" s="3">
         <v>1971</v>
       </c>
@@ -8170,7 +8165,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="20.25">
       <c r="A199" s="3">
         <v>1981</v>
       </c>
@@ -8202,7 +8197,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="20.25">
       <c r="A200" s="3">
         <v>1991</v>
       </c>
@@ -8234,7 +8229,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="20.25">
       <c r="A201" s="3">
         <v>2001</v>
       </c>
@@ -8266,7 +8261,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="20.25">
       <c r="A202" s="3">
         <v>2011</v>
       </c>
@@ -8298,7 +8293,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="20.25">
       <c r="A203" s="3">
         <v>2021</v>
       </c>
@@ -8330,7 +8325,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="20.25">
       <c r="A204" s="3">
         <v>2031</v>
       </c>
@@ -8362,7 +8357,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="20.25">
       <c r="A205" s="3">
         <v>2041</v>
       </c>
@@ -8394,7 +8389,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="20.25">
       <c r="A206" s="3">
         <v>2051</v>
       </c>
@@ -8426,7 +8421,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="20.25">
       <c r="A207" s="3">
         <v>2061</v>
       </c>
@@ -8458,7 +8453,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="20.25">
       <c r="A208" s="3">
         <v>2071</v>
       </c>
@@ -8490,7 +8485,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="20.25">
       <c r="A209" s="3">
         <v>2081</v>
       </c>
@@ -8522,7 +8517,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="20.25">
       <c r="A210" s="3">
         <v>2091</v>
       </c>
@@ -8554,7 +8549,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="20.25">
       <c r="A211" s="3">
         <v>2101</v>
       </c>
@@ -8586,7 +8581,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="20.25">
       <c r="A212" s="3">
         <v>2111</v>
       </c>
@@ -8618,7 +8613,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="20.25">
       <c r="A213" s="3">
         <v>2121</v>
       </c>
@@ -8650,7 +8645,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="20.25">
       <c r="A214" s="3">
         <v>2131</v>
       </c>
@@ -8682,7 +8677,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="20.25">
       <c r="A215" s="3">
         <v>2141</v>
       </c>
@@ -8714,7 +8709,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="20.25">
       <c r="A216" s="3">
         <v>2151</v>
       </c>
@@ -8746,7 +8741,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="20.25">
       <c r="A217" s="3">
         <v>2161</v>
       </c>
@@ -8778,7 +8773,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="20.25">
       <c r="A218" s="3">
         <v>2171</v>
       </c>
@@ -8810,7 +8805,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="20.25">
       <c r="A219" s="3">
         <v>2181</v>
       </c>
@@ -8842,7 +8837,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="20.25">
       <c r="A220" s="3">
         <v>2191</v>
       </c>
@@ -8874,7 +8869,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="20.25">
       <c r="A221" s="3">
         <v>2201</v>
       </c>
@@ -8906,7 +8901,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="20.25">
       <c r="A222" s="3">
         <v>2211</v>
       </c>
@@ -8938,7 +8933,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="20.25">
       <c r="A223" s="3">
         <v>2221</v>
       </c>
@@ -8970,7 +8965,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="20.25">
       <c r="A224" s="3">
         <v>2231</v>
       </c>
@@ -9002,7 +8997,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="20.25">
       <c r="A225" s="3">
         <v>2241</v>
       </c>
@@ -9034,7 +9029,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="20.25">
       <c r="A226" s="3">
         <v>2251</v>
       </c>
@@ -9066,7 +9061,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="20.25">
       <c r="A227" s="3">
         <v>2261</v>
       </c>
@@ -9098,7 +9093,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="20.25">
       <c r="A228" s="3">
         <v>2271</v>
       </c>
@@ -9130,7 +9125,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="20.25">
       <c r="A229" s="3">
         <v>2281</v>
       </c>
@@ -9162,7 +9157,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="20.25">
       <c r="A230" s="3">
         <v>2291</v>
       </c>
@@ -9194,7 +9189,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="20.25">
       <c r="A231" s="3">
         <v>2301</v>
       </c>
@@ -9226,7 +9221,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="20.25">
       <c r="A232" s="3">
         <v>2311</v>
       </c>
@@ -9258,7 +9253,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="20.25">
       <c r="A233" s="3">
         <v>2321</v>
       </c>
@@ -9290,7 +9285,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="20.25">
       <c r="A234" s="3">
         <v>2331</v>
       </c>
@@ -9322,7 +9317,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="20.25">
       <c r="A235" s="3">
         <v>2341</v>
       </c>
@@ -9354,7 +9349,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="20.25">
       <c r="A236" s="3">
         <v>2351</v>
       </c>
@@ -9386,7 +9381,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="20.25">
       <c r="A237" s="3">
         <v>2361</v>
       </c>
@@ -9418,7 +9413,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="20.25">
       <c r="A238" s="3">
         <v>2371</v>
       </c>
@@ -9450,7 +9445,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="20.25">
       <c r="A239" s="3">
         <v>2381</v>
       </c>
@@ -9482,7 +9477,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="20.25">
       <c r="A240" s="3">
         <v>2391</v>
       </c>
@@ -9514,7 +9509,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="20.25">
       <c r="A241" s="3">
         <v>2401</v>
       </c>
@@ -9546,7 +9541,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="20.25">
       <c r="A242" s="3">
         <v>2411</v>
       </c>
@@ -9578,7 +9573,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="20.25">
       <c r="A243" s="3">
         <v>2421</v>
       </c>
@@ -9610,7 +9605,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="20.25">
       <c r="A244" s="3">
         <v>2431</v>
       </c>
@@ -9642,7 +9637,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="20.25">
       <c r="A245" s="3">
         <v>2441</v>
       </c>
@@ -9674,7 +9669,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="20.25">
       <c r="A246" s="3">
         <v>2451</v>
       </c>
@@ -9706,7 +9701,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="20.25">
       <c r="A247" s="3">
         <v>2461</v>
       </c>
@@ -9738,7 +9733,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="20.25">
       <c r="A248" s="3">
         <v>2471</v>
       </c>
@@ -9770,7 +9765,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="20.25">
       <c r="A249" s="3">
         <v>2481</v>
       </c>
@@ -9802,7 +9797,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="20.25">
       <c r="A250" s="3">
         <v>2491</v>
       </c>
@@ -9834,7 +9829,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="20.25">
       <c r="A251" s="3">
         <v>2501</v>
       </c>
@@ -9866,7 +9861,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="20.25">
       <c r="A252" s="3">
         <v>2511</v>
       </c>
@@ -9898,7 +9893,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="20.25">
       <c r="A253" s="3">
         <v>2521</v>
       </c>
@@ -9930,7 +9925,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="20.25">
       <c r="A254" s="3">
         <v>2531</v>
       </c>
@@ -9962,7 +9957,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="20.25">
       <c r="A255" s="3">
         <v>2541</v>
       </c>
@@ -9994,7 +9989,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="20.25">
       <c r="A256" s="3">
         <v>2551</v>
       </c>
@@ -10026,7 +10021,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="20.25">
       <c r="A257" s="3">
         <v>2561</v>
       </c>
@@ -10058,7 +10053,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="20.25">
       <c r="A258" s="3">
         <v>2571</v>
       </c>
@@ -10090,7 +10085,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="20.25">
       <c r="A259" s="3">
         <v>2581</v>
       </c>
@@ -10122,7 +10117,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="20.25">
       <c r="A260" s="3">
         <v>2591</v>
       </c>
@@ -10154,7 +10149,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="20.25">
       <c r="A261" s="3">
         <v>2601</v>
       </c>
@@ -10186,7 +10181,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="20.25">
       <c r="A262" s="3">
         <v>2611</v>
       </c>
@@ -10218,7 +10213,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="20.25">
       <c r="A263" s="3">
         <v>2621</v>
       </c>
@@ -10250,7 +10245,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="20.25">
       <c r="A264" s="3">
         <v>2631</v>
       </c>
@@ -10282,7 +10277,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="20.25">
       <c r="A265" s="3">
         <v>2641</v>
       </c>
@@ -10314,7 +10309,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="20.25">
       <c r="A266" s="3">
         <v>2651</v>
       </c>
@@ -10346,7 +10341,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="20.25">
       <c r="A267" s="3">
         <v>2661</v>
       </c>
@@ -10378,7 +10373,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="20.25">
       <c r="A268" s="3">
         <v>2671</v>
       </c>
@@ -10410,7 +10405,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="20.25">
       <c r="A269" s="3">
         <v>2681</v>
       </c>
@@ -10442,7 +10437,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="20.25">
       <c r="A270" s="3">
         <v>2691</v>
       </c>
@@ -10474,7 +10469,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="20.25">
       <c r="A271" s="3">
         <v>2701</v>
       </c>
@@ -10506,7 +10501,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="20.25">
       <c r="A272" s="3">
         <v>2711</v>
       </c>
@@ -10538,7 +10533,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="20.25">
       <c r="A273" s="3">
         <v>2721</v>
       </c>
@@ -10570,7 +10565,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="20.25">
       <c r="A274" s="3">
         <v>2731</v>
       </c>
@@ -10602,7 +10597,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="20.25">
       <c r="A275" s="3">
         <v>2741</v>
       </c>
@@ -10634,7 +10629,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="20.25">
       <c r="A276" s="3">
         <v>2751</v>
       </c>
@@ -10666,7 +10661,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="20.25">
       <c r="A277" s="3">
         <v>2761</v>
       </c>
@@ -10698,7 +10693,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="20.25">
       <c r="A278" s="3">
         <v>2771</v>
       </c>
@@ -10730,7 +10725,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="20.25">
       <c r="A279" s="3">
         <v>2781</v>
       </c>
@@ -10762,7 +10757,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="20.25">
       <c r="A280" s="3">
         <v>2791</v>
       </c>
@@ -10794,7 +10789,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="20.25">
       <c r="A281" s="3">
         <v>2801</v>
       </c>
@@ -10826,7 +10821,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="20.25">
       <c r="A282" s="3">
         <v>2811</v>
       </c>
@@ -10858,7 +10853,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="20.25">
       <c r="A283" s="3">
         <v>2821</v>
       </c>
@@ -10890,7 +10885,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="20.25">
       <c r="A284" s="3">
         <v>2831</v>
       </c>
@@ -10922,7 +10917,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="20.25">
       <c r="A285" s="3">
         <v>2841</v>
       </c>
@@ -10954,7 +10949,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="20.25">
       <c r="A286" s="3">
         <v>2851</v>
       </c>
@@ -10986,7 +10981,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="20.25">
       <c r="A287" s="3">
         <v>2861</v>
       </c>
@@ -11018,7 +11013,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="20.25">
       <c r="A288" s="3">
         <v>2871</v>
       </c>
@@ -11050,7 +11045,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="20.25">
       <c r="A289" s="3">
         <v>2881</v>
       </c>
@@ -11082,7 +11077,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="20.25">
       <c r="A290" s="3">
         <v>2891</v>
       </c>
@@ -11114,7 +11109,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="20.25">
       <c r="A291" s="3">
         <v>2901</v>
       </c>
@@ -11146,7 +11141,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="20.25">
       <c r="A292" s="3">
         <v>2911</v>
       </c>
@@ -11178,7 +11173,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="20.25">
       <c r="A293" s="3">
         <v>2921</v>
       </c>
@@ -11210,7 +11205,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="20.25">
       <c r="A294" s="3">
         <v>2931</v>
       </c>
@@ -11242,7 +11237,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="20.25">
       <c r="A295" s="3">
         <v>2941</v>
       </c>
@@ -11274,7 +11269,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="20.25">
       <c r="A296" s="3">
         <v>2951</v>
       </c>
@@ -11306,7 +11301,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="20.25">
       <c r="A297" s="3">
         <v>2961</v>
       </c>
@@ -11338,7 +11333,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="20.25">
       <c r="A298" s="3">
         <v>2971</v>
       </c>
@@ -11370,7 +11365,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="20.25">
       <c r="A299" s="3">
         <v>2981</v>
       </c>
@@ -11402,7 +11397,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="20.25">
       <c r="A300" s="3">
         <v>2991</v>
       </c>
@@ -11434,7 +11429,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="20.25">
       <c r="A301" s="3">
         <v>3001</v>
       </c>
@@ -11466,7 +11461,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="20.25">
       <c r="A302" s="3">
         <v>3011</v>
       </c>
@@ -11498,7 +11493,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="20.25">
       <c r="A303" s="3">
         <v>3021</v>
       </c>
@@ -11530,7 +11525,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="20.25">
       <c r="A304" s="3">
         <v>3031</v>
       </c>
@@ -11562,7 +11557,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="20.25">
       <c r="A305" s="3">
         <v>3041</v>
       </c>
@@ -11594,7 +11589,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="20.25">
       <c r="A306" s="3">
         <v>3051</v>
       </c>
@@ -11626,7 +11621,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="20.25">
       <c r="A307" s="3">
         <v>3061</v>
       </c>
@@ -11658,7 +11653,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="20.25">
       <c r="A308" s="3">
         <v>3071</v>
       </c>
@@ -11690,7 +11685,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="20.25">
       <c r="A309" s="3">
         <v>3081</v>
       </c>
@@ -11722,7 +11717,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="20.25">
       <c r="A310" s="3">
         <v>3091</v>
       </c>
@@ -11754,7 +11749,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="20.25">
       <c r="A311" s="3">
         <v>3101</v>
       </c>
@@ -11786,7 +11781,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="20.25">
       <c r="A312" s="3">
         <v>3111</v>
       </c>
@@ -11818,7 +11813,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="20.25">
       <c r="A313" s="3">
         <v>3121</v>
       </c>
@@ -11850,7 +11845,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="20.25">
       <c r="A314" s="3">
         <v>3131</v>
       </c>
@@ -11882,7 +11877,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="20.25">
       <c r="A315" s="3">
         <v>3141</v>
       </c>
@@ -11914,7 +11909,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="20.25">
       <c r="A316" s="3">
         <v>3151</v>
       </c>
@@ -11946,7 +11941,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="20.25">
       <c r="A317" s="3">
         <v>3161</v>
       </c>
@@ -11978,7 +11973,7 @@
         <v>3170</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="20.25">
       <c r="A318" s="3">
         <v>3171</v>
       </c>
@@ -12010,7 +12005,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="20.25">
       <c r="A319" s="3">
         <v>3181</v>
       </c>
@@ -12042,7 +12037,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="20.25">
       <c r="A320" s="3">
         <v>3191</v>
       </c>
@@ -12074,7 +12069,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="20.25">
       <c r="A321" s="3">
         <v>3201</v>
       </c>
@@ -12106,7 +12101,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="20.25">
       <c r="A322" s="3">
         <v>3211</v>
       </c>
@@ -12138,7 +12133,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="20.25">
       <c r="A323" s="3">
         <v>3221</v>
       </c>
@@ -12170,7 +12165,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="20.25">
       <c r="A324" s="3">
         <v>3231</v>
       </c>
@@ -12202,7 +12197,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="20.25">
       <c r="A325" s="3">
         <v>3241</v>
       </c>
@@ -12234,7 +12229,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="20.25">
       <c r="A326" s="3">
         <v>3251</v>
       </c>
@@ -12266,7 +12261,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="20.25">
       <c r="A327" s="3">
         <v>3261</v>
       </c>
@@ -12298,7 +12293,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="20.25">
       <c r="A328" s="3">
         <v>3271</v>
       </c>
@@ -12330,7 +12325,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="20.25">
       <c r="A329" s="3">
         <v>3281</v>
       </c>
@@ -12362,7 +12357,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="20.25">
       <c r="A330" s="3">
         <v>3291</v>
       </c>
@@ -12394,7 +12389,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="20.25">
       <c r="A331" s="3">
         <v>3301</v>
       </c>
@@ -12426,7 +12421,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="20.25">
       <c r="A332" s="3">
         <v>3311</v>
       </c>
@@ -12458,7 +12453,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="20.25">
       <c r="A333" s="3">
         <v>3321</v>
       </c>
@@ -12490,7 +12485,7 @@
         <v>3330</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="20.25">
       <c r="A334" s="3">
         <v>3331</v>
       </c>
@@ -12522,7 +12517,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="20.25">
       <c r="A335" s="3">
         <v>3341</v>
       </c>
@@ -12554,7 +12549,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="20.25">
       <c r="A336" s="3">
         <v>3351</v>
       </c>
@@ -12586,7 +12581,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="20.25">
       <c r="A337" s="3">
         <v>3361</v>
       </c>
@@ -12618,7 +12613,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="20.25">
       <c r="A338" s="3">
         <v>3371</v>
       </c>
@@ -12650,7 +12645,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="20.25">
       <c r="A339" s="3">
         <v>3381</v>
       </c>
@@ -12682,7 +12677,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="20.25">
       <c r="A340" s="3">
         <v>3391</v>
       </c>
@@ -12714,7 +12709,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" ht="20.25">
       <c r="A341" s="3">
         <v>3401</v>
       </c>
@@ -12746,7 +12741,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" ht="20.25">
       <c r="A342" s="3">
         <v>3411</v>
       </c>
@@ -12778,7 +12773,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" ht="20.25">
       <c r="A343" s="3">
         <v>3421</v>
       </c>
@@ -12810,7 +12805,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" ht="20.25">
       <c r="A344" s="3">
         <v>3431</v>
       </c>
@@ -12842,7 +12837,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" ht="20.25">
       <c r="A345" s="3">
         <v>3441</v>
       </c>
@@ -12874,7 +12869,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" ht="20.25">
       <c r="A346" s="3">
         <v>3451</v>
       </c>
@@ -12906,7 +12901,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" ht="20.25">
       <c r="A347" s="3">
         <v>3461</v>
       </c>
@@ -12938,7 +12933,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" ht="20.25">
       <c r="A348" s="3">
         <v>3471</v>
       </c>
@@ -12970,7 +12965,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" ht="20.25">
       <c r="A349" s="3">
         <v>3481</v>
       </c>
@@ -13002,7 +12997,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" ht="20.25">
       <c r="A350" s="3">
         <v>3491</v>
       </c>
@@ -13034,7 +13029,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" ht="20.25">
       <c r="A351" s="3">
         <v>3501</v>
       </c>
@@ -13066,7 +13061,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" ht="20.25">
       <c r="A352" s="3">
         <v>3511</v>
       </c>
@@ -13098,7 +13093,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" ht="20.25">
       <c r="A353" s="3">
         <v>3521</v>
       </c>
@@ -13130,7 +13125,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" ht="20.25">
       <c r="A354" s="3">
         <v>3531</v>
       </c>
@@ -13162,7 +13157,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" ht="20.25">
       <c r="A355" s="3">
         <v>3541</v>
       </c>
@@ -13194,7 +13189,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" ht="20.25">
       <c r="A356" s="3">
         <v>3551</v>
       </c>
@@ -13226,7 +13221,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" ht="20.25">
       <c r="A357" s="3">
         <v>3561</v>
       </c>
@@ -13258,7 +13253,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" ht="20.25">
       <c r="A358" s="3">
         <v>3571</v>
       </c>
@@ -13290,7 +13285,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" ht="20.25">
       <c r="A359" s="3">
         <v>3581</v>
       </c>
@@ -13322,7 +13317,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" ht="20.25">
       <c r="A360" s="3">
         <v>3591</v>
       </c>
@@ -13354,7 +13349,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" ht="20.25">
       <c r="A361" s="3">
         <v>3601</v>
       </c>
@@ -13386,7 +13381,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" ht="20.25">
       <c r="A362" s="3">
         <v>3611</v>
       </c>
@@ -13418,7 +13413,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" ht="20.25">
       <c r="A363" s="3">
         <v>3621</v>
       </c>
@@ -13450,7 +13445,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" ht="20.25">
       <c r="A364" s="3">
         <v>3631</v>
       </c>
@@ -13482,7 +13477,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" ht="20.25">
       <c r="A365" s="3">
         <v>3641</v>
       </c>
@@ -13514,7 +13509,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" ht="20.25">
       <c r="A366" s="3">
         <v>3651</v>
       </c>
@@ -13546,7 +13541,7 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" ht="20.25">
       <c r="A367" s="3">
         <v>3661</v>
       </c>
@@ -13578,7 +13573,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" ht="20.25">
       <c r="A368" s="3">
         <v>3671</v>
       </c>
@@ -13610,7 +13605,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" ht="20.25">
       <c r="A369" s="3">
         <v>3681</v>
       </c>
@@ -13642,7 +13637,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" ht="20.25">
       <c r="A370" s="3">
         <v>3691</v>
       </c>
@@ -13674,7 +13669,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" ht="20.25">
       <c r="A371" s="3">
         <v>3701</v>
       </c>
@@ -13706,7 +13701,7 @@
         <v>3710</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" ht="20.25">
       <c r="A372" s="3">
         <v>3711</v>
       </c>
@@ -13738,7 +13733,7 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" ht="20.25">
       <c r="A373" s="3">
         <v>3721</v>
       </c>
@@ -13770,7 +13765,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" ht="20.25">
       <c r="A374" s="3">
         <v>3731</v>
       </c>
@@ -13802,7 +13797,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" ht="20.25">
       <c r="A375" s="3">
         <v>3741</v>
       </c>
@@ -13834,7 +13829,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" ht="20.25">
       <c r="A376" s="3">
         <v>3751</v>
       </c>
@@ -13866,7 +13861,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" ht="20.25">
       <c r="A377" s="3">
         <v>3761</v>
       </c>
@@ -13898,7 +13893,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" ht="20.25">
       <c r="A378" s="3">
         <v>3771</v>
       </c>
@@ -13930,7 +13925,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" ht="20.25">
       <c r="A379" s="3">
         <v>3781</v>
       </c>
@@ -13962,7 +13957,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" ht="20.25">
       <c r="A380" s="3">
         <v>3791</v>
       </c>
@@ -13994,7 +13989,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" ht="20.25">
       <c r="A381" s="3">
         <v>3801</v>
       </c>
@@ -14026,7 +14021,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" ht="20.25">
       <c r="A382" s="3">
         <v>3811</v>
       </c>
@@ -14058,7 +14053,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" ht="20.25">
       <c r="A383" s="3">
         <v>3821</v>
       </c>
@@ -14090,7 +14085,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" ht="20.25">
       <c r="A384" s="3">
         <v>3831</v>
       </c>
@@ -14122,7 +14117,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" ht="20.25">
       <c r="A385" s="3">
         <v>3841</v>
       </c>
@@ -14154,7 +14149,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" ht="20.25">
       <c r="A386" s="3">
         <v>3851</v>
       </c>
@@ -14186,7 +14181,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" ht="20.25">
       <c r="A387" s="3">
         <v>3861</v>
       </c>
@@ -14218,7 +14213,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" ht="20.25">
       <c r="A388" s="3">
         <v>3871</v>
       </c>
@@ -14250,7 +14245,7 @@
         <v>3880</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" ht="20.25">
       <c r="A389" s="3">
         <v>3881</v>
       </c>
@@ -14282,7 +14277,7 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" ht="20.25">
       <c r="A390" s="3">
         <v>3891</v>
       </c>
@@ -14314,7 +14309,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" ht="20.25">
       <c r="A391" s="3">
         <v>3901</v>
       </c>
@@ -14346,7 +14341,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" ht="20.25">
       <c r="A392" s="3">
         <v>3911</v>
       </c>
@@ -14378,7 +14373,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" ht="20.25">
       <c r="A393" s="3">
         <v>3921</v>
       </c>
@@ -14410,7 +14405,7 @@
         <v>3930</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" ht="20.25">
       <c r="A394" s="3">
         <v>3931</v>
       </c>
@@ -14442,7 +14437,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" ht="20.25">
       <c r="A395" s="3">
         <v>3941</v>
       </c>
@@ -14474,7 +14469,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" ht="20.25">
       <c r="A396" s="3">
         <v>3951</v>
       </c>
@@ -14506,7 +14501,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" ht="20.25">
       <c r="A397" s="3">
         <v>3961</v>
       </c>
@@ -14538,7 +14533,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" ht="20.25">
       <c r="A398" s="3">
         <v>3971</v>
       </c>
@@ -14570,7 +14565,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" ht="20.25">
       <c r="A399" s="3">
         <v>3981</v>
       </c>
@@ -14602,7 +14597,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" ht="20.25">
       <c r="A400" s="3">
         <v>3991</v>
       </c>
@@ -14634,7 +14629,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" ht="20.25">
       <c r="A401" s="3">
         <v>4001</v>
       </c>
@@ -14666,7 +14661,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" ht="20.25">
       <c r="A402" s="3">
         <v>4011</v>
       </c>
@@ -14698,7 +14693,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" ht="20.25">
       <c r="A403" s="3">
         <v>4021</v>
       </c>
@@ -14730,7 +14725,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" ht="20.25">
       <c r="A404" s="3">
         <v>4031</v>
       </c>
@@ -14762,7 +14757,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" ht="20.25">
       <c r="A405" s="3">
         <v>4041</v>
       </c>
@@ -14794,7 +14789,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" ht="20.25">
       <c r="A406" s="3">
         <v>4051</v>
       </c>
@@ -14826,7 +14821,7 @@
         <v>4060</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" ht="20.25">
       <c r="A407" s="3">
         <v>4061</v>
       </c>
@@ -14858,7 +14853,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" ht="20.25">
       <c r="A408" s="3">
         <v>4071</v>
       </c>
@@ -14890,7 +14885,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" ht="20.25">
       <c r="A409" s="3">
         <v>4081</v>
       </c>
@@ -14922,7 +14917,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" ht="20.25">
       <c r="A410" s="3">
         <v>4091</v>
       </c>
@@ -14954,7 +14949,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" ht="20.25">
       <c r="A411" s="3">
         <v>4101</v>
       </c>
@@ -14986,7 +14981,7 @@
         <v>4110</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" ht="20.25">
       <c r="A412" s="3">
         <v>4111</v>
       </c>
@@ -15018,7 +15013,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" ht="20.25">
       <c r="A413" s="3">
         <v>4121</v>
       </c>
@@ -15053,5 +15048,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Coding.xlsx
+++ b/Coding.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Code-Practice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-255" yWindow="1185" windowWidth="28800" windowHeight="16335" tabRatio="500"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -111,6 +116,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -371,21 +379,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="2">
@@ -653,10 +661,10 @@
       <c r="C9" s="2">
         <v>83</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>84</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>85</v>
       </c>
       <c r="F9" s="2">
@@ -668,7 +676,7 @@
       <c r="H9" s="2">
         <v>88</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>89</v>
       </c>
       <c r="J9" s="2">
@@ -682,7 +690,7 @@
       <c r="B10" s="2">
         <v>92</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>93</v>
       </c>
       <c r="D10" s="2">
@@ -697,10 +705,10 @@
       <c r="G10" s="2">
         <v>97</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <v>98</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>99</v>
       </c>
       <c r="J10" s="2">
@@ -1936,7 +1944,7 @@
       <c r="D49" s="4">
         <v>484</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="2">
         <v>485</v>
       </c>
       <c r="F49" s="4">
@@ -1983,7 +1991,7 @@
       <c r="I50" s="4">
         <v>499</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="2">
         <v>500</v>
       </c>
     </row>
@@ -2006,7 +2014,7 @@
       <c r="F51" s="4">
         <v>506</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="2">
         <v>507</v>
       </c>
       <c r="H51" s="4">
@@ -2108,7 +2116,7 @@
       <c r="H54" s="4">
         <v>538</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="2">
         <v>539</v>
       </c>
       <c r="J54" s="3">
@@ -2119,21 +2127,33 @@
       <c r="A55" s="4">
         <v>541</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="2">
         <v>542</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="2">
         <v>543</v>
       </c>
       <c r="D55" s="4">
         <v>544</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="E55" s="4">
+        <v>545</v>
+      </c>
+      <c r="F55" s="4">
+        <v>546</v>
+      </c>
+      <c r="G55" s="4">
+        <v>547</v>
+      </c>
+      <c r="H55" s="4">
+        <v>548</v>
+      </c>
+      <c r="I55" s="4">
+        <v>549</v>
+      </c>
+      <c r="J55" s="4">
+        <v>550</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2143,14 +2163,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J413"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25">
       <c r="A1" s="1">

--- a/Coding.xlsx
+++ b/Coding.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.25"/>
@@ -763,16 +763,16 @@
       <c r="E12" s="4">
         <v>115</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>116</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>117</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <v>118</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>119</v>
       </c>
       <c r="J12" s="4">
